--- a/CMPG323 EcoPower Logistics Data.xlsx
+++ b/CMPG323 EcoPower Logistics Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\cmpg323\CMPG-323-Project-4---30332338\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nttlimited-my.sharepoint.com/personal/jacqui_muller_dimensiondata_com/Documents/NWU/2023 CMPG323/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31415356-7D66-467E-A0A9-21F9F60F1D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{5546F926-6C85-4EAE-890A-D0833008B810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B224C2EE-D72C-413C-83C8-0FBC3DD6E173}"/>
   <bookViews>
-    <workbookView xWindow="4365" yWindow="3765" windowWidth="21000" windowHeight="10020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Customers" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,21 @@
     <sheet name="Orders" sheetId="3" r:id="rId3"/>
     <sheet name="Products" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -721,16 +732,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -771,9 +779,6 @@
       <c r="E2">
         <v>5723177115</v>
       </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -791,9 +796,6 @@
       <c r="E3">
         <v>9041993848</v>
       </c>
-      <c r="F3" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -810,9 +812,6 @@
       </c>
       <c r="E4">
         <v>3738283528</v>
-      </c>
-      <c r="F4" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1951,7 +1950,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
